--- a/VersionRecords/Version yuefu_activity/配置文件/新增定时器.xlsx
+++ b/VersionRecords/Version yuefu_activity/配置文件/新增定时器.xlsx
@@ -160,7 +160,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>每日01:00 和13:00各跑一次</t>
+    <t>每日00:01 和06:00各跑一次</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -630,7 +630,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -640,7 +640,7 @@
     <col min="12" max="12" width="15.5" customWidth="1"/>
     <col min="14" max="14" width="56.375" customWidth="1"/>
     <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="16" max="16" width="20.125" customWidth="1"/>
+    <col min="16" max="16" width="36.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="7" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">

--- a/VersionRecords/Version yuefu_activity/配置文件/新增定时器.xlsx
+++ b/VersionRecords/Version yuefu_activity/配置文件/新增定时器.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -167,8 +167,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +329,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -341,14 +409,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -415,7 +483,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -450,7 +517,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -626,14 +692,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="25.375" customWidth="1"/>
     <col min="6" max="6" width="29.375" customWidth="1"/>
@@ -643,7 +709,7 @@
     <col min="16" max="16" width="36.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="7" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="7" customFormat="1" ht="67.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -703,7 +769,7 @@
       </c>
       <c r="T1" s="6"/>
     </row>
-    <row r="2" spans="1:20" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" ht="27">
       <c r="C2" t="s">
         <v>7</v>
       </c>
@@ -753,12 +819,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -766,12 +832,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
